--- a/tabelas_mod_alimentos2.xlsx
+++ b/tabelas_mod_alimentos2.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slima\Desktop\fit_plus_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2E89EE-CEAB-4127-B843-2A1CD33B61A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BD37B6-ED77-4D23-B124-96ED07F0F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{34E6094A-40F7-4DB9-B6E1-EBA244135E31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34E6094A-40F7-4DB9-B6E1-EBA244135E31}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_foods" sheetId="5" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="6" r:id="rId2"/>
-    <sheet name="tbl_aux" sheetId="2" r:id="rId3"/>
+    <sheet name="tbl_aux" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tbl_foods!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="227">
   <si>
     <t>Nome do Campo</t>
   </si>
@@ -719,9 +719,6 @@
   </si>
   <si>
     <t>foodObservations</t>
-  </si>
-  <si>
-    <t>Campo Banco de Dados</t>
   </si>
   <si>
     <t>tbl_aux_alergicos</t>
@@ -731,7 +728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +746,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -780,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,6 +794,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2959EE8A-88D4-4E8F-87F9-780D79BB79FF}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,399 +2582,16 @@
   </sheetData>
   <autoFilter ref="A1:I47" xr:uid="{2959EE8A-88D4-4E8F-87F9-780D79BB79FF}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C363085-D680-483D-8CA8-24132656A92D}">
-  <dimension ref="A1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B13942-3034-4FE5-8323-2D4A110698D2}">
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B13942-3034-4FE5-8323-2D4A110698D2}">
-  <dimension ref="A1:J96"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,7 +3339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>72</v>
       </c>
@@ -3719,7 +3347,7 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
@@ -3747,7 +3375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3761,7 +3389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3774,8 +3402,10 @@
       <c r="D71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3788,8 +3418,10 @@
       <c r="D72" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -3802,8 +3434,10 @@
       <c r="D73" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -3816,8 +3450,10 @@
       <c r="D74" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>4</v>
       </c>
@@ -3830,8 +3466,10 @@
       <c r="D75" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
@@ -3839,7 +3477,7 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -3853,7 +3491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1</v>
       </c>
@@ -3953,7 +3591,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>

--- a/tabelas_mod_alimentos2.xlsx
+++ b/tabelas_mod_alimentos2.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slima\Desktop\fit_plus_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BD37B6-ED77-4D23-B124-96ED07F0F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE17FC-7933-43BE-BF84-B09B2AC1E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34E6094A-40F7-4DB9-B6E1-EBA244135E31}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{34E6094A-40F7-4DB9-B6E1-EBA244135E31}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_foods" sheetId="5" r:id="rId1"/>
     <sheet name="tbl_aux" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="7" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tbl_foods!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="291">
   <si>
     <t>Nome do Campo</t>
   </si>
@@ -712,9 +713,6 @@
     <t>foodGluten</t>
   </si>
   <si>
-    <t>foodAllergens</t>
-  </si>
-  <si>
     <t>foodAntioxidants</t>
   </si>
   <si>
@@ -722,6 +720,201 @@
   </si>
   <si>
     <t>tbl_aux_alergicos</t>
+  </si>
+  <si>
+    <t>acucar_adicionado_gr</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Registro 1</t>
+  </si>
+  <si>
+    <t>Registro 2</t>
+  </si>
+  <si>
+    <t>Registro 3</t>
+  </si>
+  <si>
+    <t>Registro 4</t>
+  </si>
+  <si>
+    <t>Registro 5</t>
+  </si>
+  <si>
+    <t>Leite Integral</t>
+  </si>
+  <si>
+    <t>Leite Desnatado</t>
+  </si>
+  <si>
+    <t>Açucar Refinado</t>
+  </si>
+  <si>
+    <t>Tio João</t>
+  </si>
+  <si>
+    <t>Italac</t>
+  </si>
+  <si>
+    <t>Parmalat</t>
+  </si>
+  <si>
+    <t>União</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>49.9</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>foodAllergs3</t>
   </si>
 </sst>
 </file>
@@ -759,7 +952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,8 +965,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -781,11 +980,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,12 +1007,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,20 +1360,20 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2103,7 +2325,7 @@
         <v>101</v>
       </c>
       <c r="J33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2187,7 +2409,7 @@
         <v>156</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2216,7 +2438,7 @@
         <v>159</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2590,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B13942-3034-4FE5-8323-2D4A110698D2}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,16 +2825,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2740,12 +2962,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2860,12 +3082,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2980,12 +3202,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -3100,12 +3322,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -3220,12 +3442,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3340,12 +3562,12 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3402,8 +3624,8 @@
       <c r="D71" t="s">
         <v>68</v>
       </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -3418,8 +3640,8 @@
       <c r="D72" t="s">
         <v>66</v>
       </c>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -3434,8 +3656,8 @@
       <c r="D73" t="s">
         <v>66</v>
       </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -3450,8 +3672,8 @@
       <c r="D74" t="s">
         <v>66</v>
       </c>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -3466,16 +3688,16 @@
       <c r="D75" t="s">
         <v>66</v>
       </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -3590,12 +3812,12 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="A88" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -3724,4 +3946,1478 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85735E8-6E02-410F-A5A6-49A3827C55BD}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>16</v>
+      </c>
+      <c r="E39" s="10">
+        <v>16</v>
+      </c>
+      <c r="F39" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <v>10</v>
+      </c>
+      <c r="E40" s="10">
+        <v>10</v>
+      </c>
+      <c r="F40" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="10">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2</v>
+      </c>
+      <c r="F41" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="10">
+        <v>1</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10">
+        <v>5</v>
+      </c>
+      <c r="F42" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>3</v>
+      </c>
+      <c r="F43" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DA7640-5E5D-4156-B91A-3DD3F1AD0902}">
+  <dimension ref="A1:AR6"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="21" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>248</v>
+      </c>
+      <c r="R2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S2" t="s">
+        <v>250</v>
+      </c>
+      <c r="T2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U2" t="s">
+        <v>252</v>
+      </c>
+      <c r="V2" t="s">
+        <v>253</v>
+      </c>
+      <c r="W2" t="s">
+        <v>254</v>
+      </c>
+      <c r="X2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N3" t="s">
+        <v>262</v>
+      </c>
+      <c r="O3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>263</v>
+      </c>
+      <c r="R3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S3" t="s">
+        <v>265</v>
+      </c>
+      <c r="T3" t="s">
+        <v>254</v>
+      </c>
+      <c r="U3" t="s">
+        <v>266</v>
+      </c>
+      <c r="V3" t="s">
+        <v>267</v>
+      </c>
+      <c r="W3" t="s">
+        <v>247</v>
+      </c>
+      <c r="X3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L4" t="s">
+        <v>275</v>
+      </c>
+      <c r="M4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" t="s">
+        <v>275</v>
+      </c>
+      <c r="O4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P4" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>276</v>
+      </c>
+      <c r="R4" t="s">
+        <v>261</v>
+      </c>
+      <c r="S4" t="s">
+        <v>277</v>
+      </c>
+      <c r="T4" t="s">
+        <v>244</v>
+      </c>
+      <c r="U4" t="s">
+        <v>278</v>
+      </c>
+      <c r="V4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W4" t="s">
+        <v>245</v>
+      </c>
+      <c r="X4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG4">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>16</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>5</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>246</v>
+      </c>
+      <c r="N5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>276</v>
+      </c>
+      <c r="R5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S5" t="s">
+        <v>283</v>
+      </c>
+      <c r="T5" t="s">
+        <v>246</v>
+      </c>
+      <c r="U5" t="s">
+        <v>284</v>
+      </c>
+      <c r="V5" t="s">
+        <v>265</v>
+      </c>
+      <c r="W5" t="s">
+        <v>245</v>
+      </c>
+      <c r="X5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG5">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>16</v>
+      </c>
+      <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <v>2</v>
+      </c>
+      <c r="AO5">
+        <v>5</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" t="s">
+        <v>246</v>
+      </c>
+      <c r="M6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N6" t="s">
+        <v>246</v>
+      </c>
+      <c r="O6" t="s">
+        <v>246</v>
+      </c>
+      <c r="P6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>288</v>
+      </c>
+      <c r="R6" t="s">
+        <v>289</v>
+      </c>
+      <c r="S6" t="s">
+        <v>262</v>
+      </c>
+      <c r="T6" t="s">
+        <v>244</v>
+      </c>
+      <c r="U6" t="s">
+        <v>282</v>
+      </c>
+      <c r="V6" t="s">
+        <v>246</v>
+      </c>
+      <c r="W6" t="s">
+        <v>246</v>
+      </c>
+      <c r="X6" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>16</v>
+      </c>
+      <c r="AM6">
+        <v>8</v>
+      </c>
+      <c r="AN6">
+        <v>7</v>
+      </c>
+      <c r="AO6">
+        <v>5</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/tabelas_mod_alimentos2.xlsx
+++ b/tabelas_mod_alimentos2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slima\Desktop\fit_plus_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE17FC-7933-43BE-BF84-B09B2AC1E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D94A175-B3CB-48C1-888D-536612CFB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{34E6094A-40F7-4DB9-B6E1-EBA244135E31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{34E6094A-40F7-4DB9-B6E1-EBA244135E31}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_foods" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="306">
   <si>
     <t>Nome do Campo</t>
   </si>
@@ -915,6 +915,51 @@
   </si>
   <si>
     <t>foodAllergs3</t>
+  </si>
+  <si>
+    <t>tbl_report</t>
+  </si>
+  <si>
+    <t>id_food</t>
+  </si>
+  <si>
+    <t>id_user_report</t>
+  </si>
+  <si>
+    <t>dt_report</t>
+  </si>
+  <si>
+    <t>status_report</t>
+  </si>
+  <si>
+    <t>NUMERIC(INT)</t>
+  </si>
+  <si>
+    <t>tbl_report_itens</t>
+  </si>
+  <si>
+    <t>id_report</t>
+  </si>
+  <si>
+    <t>id_campo</t>
+  </si>
+  <si>
+    <t>valor_sugerido</t>
+  </si>
+  <si>
+    <t>dt_reg</t>
+  </si>
+  <si>
+    <t>dt_solve</t>
+  </si>
+  <si>
+    <t>VARCHAR(6)</t>
+  </si>
+  <si>
+    <t>dt_close</t>
+  </si>
+  <si>
+    <t>tbl_aux_campos_report</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,6 +1067,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2959EE8A-88D4-4E8F-87F9-780D79BB79FF}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B13942-3034-4FE5-8323-2D4A110698D2}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:D67"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,8 +3979,343 @@
         <v>66</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>296</v>
+      </c>
+      <c r="C101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>293</v>
+      </c>
+      <c r="B102" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>294</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>295</v>
+      </c>
+      <c r="B104" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>298</v>
+      </c>
+      <c r="B110" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>299</v>
+      </c>
+      <c r="B111" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>300</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>71</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>69</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>71</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" t="s">
+        <v>60</v>
+      </c>
+      <c r="D122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A117:D117"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A56:D56"/>
@@ -3952,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85735E8-6E02-410F-A5A6-49A3827C55BD}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:F45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
